--- a/excel/levelcfg.xlsx
+++ b/excel/levelcfg.xlsx
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
